--- a/DUID_Project_List.xlsx
+++ b/DUID_Project_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\Australia_Conso_Per_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\New_Australia_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FFA26F-33C1-4F8D-A545-131FB8DBBB15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75D229-BBB5-427F-8ED9-AD0FA22DE9A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25830" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25830" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6268,8 +6268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE4643D-31E6-4B66-A70C-46ADA36BCC42}">
   <dimension ref="A1:T165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J26" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7448,11 +7448,11 @@
       <c r="R19" t="s">
         <v>724</v>
       </c>
-      <c r="S19">
-        <v>-27.485485700000002</v>
+      <c r="S19" s="71">
+        <v>-35.145800000000001</v>
       </c>
       <c r="T19">
-        <v>-58.822225000000003</v>
+        <v>149.56710000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -7510,11 +7510,11 @@
       <c r="R20" t="s">
         <v>724</v>
       </c>
-      <c r="S20">
-        <v>-27.485485700000002</v>
+      <c r="S20" s="71">
+        <v>-35.145800000000001</v>
       </c>
       <c r="T20">
-        <v>-58.822225000000003</v>
+        <v>149.56710000000001</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -7572,11 +7572,11 @@
       <c r="R21" t="s">
         <v>724</v>
       </c>
-      <c r="S21">
-        <v>-27.485485700000002</v>
+      <c r="S21" s="71">
+        <v>-35.145800000000001</v>
       </c>
       <c r="T21">
-        <v>-58.822225000000003</v>
+        <v>149.56710000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -7634,11 +7634,11 @@
       <c r="R22" t="s">
         <v>725</v>
       </c>
-      <c r="S22">
-        <v>-27.486609399999999</v>
+      <c r="S22" s="71">
+        <v>-35.145800000000001</v>
       </c>
       <c r="T22">
-        <v>-58.824699000000003</v>
+        <v>149.56710000000001</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
